--- a/docs/DDR4_PinDescription.xlsx
+++ b/docs/DDR4_PinDescription.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\PCB\Project\DDR4_DIMM_Project\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B2CB4CC-593C-4E93-9415-38F547712347}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66899EC3-B385-45A6-9022-5374EF918CC4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{5EF2FE71-DCD4-4236-92FA-B5935CC9F8C6}"/>
   </bookViews>
@@ -818,7 +818,7 @@
   <dimension ref="A1:D29"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C33" sqref="C33"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -856,7 +856,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:4" hidden="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A3" s="4" t="s">
         <v>7</v>
       </c>
@@ -870,7 +870,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:4" hidden="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A4" s="4" t="s">
         <v>9</v>
       </c>
@@ -898,7 +898,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:4" hidden="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A6" s="4" t="s">
         <v>13</v>
       </c>
@@ -940,7 +940,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="34.799999999999997" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:4" ht="34.799999999999997" hidden="1" x14ac:dyDescent="0.4">
       <c r="A9" s="7" t="s">
         <v>20</v>
       </c>
@@ -1024,7 +1024,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="15" spans="1:4" hidden="1" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A15" s="4" t="s">
         <v>32</v>
       </c>
@@ -1038,7 +1038,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:4" hidden="1" x14ac:dyDescent="0.4">
       <c r="A16" s="4" t="s">
         <v>34</v>
       </c>
@@ -1052,7 +1052,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="34.799999999999997" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:4" ht="34.799999999999997" hidden="1" x14ac:dyDescent="0.4">
       <c r="A17" s="7" t="s">
         <v>36</v>
       </c>
@@ -1094,7 +1094,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:4" hidden="1" x14ac:dyDescent="0.4">
       <c r="A20" s="4" t="s">
         <v>43</v>
       </c>
@@ -1108,7 +1108,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="21" spans="1:4" hidden="1" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A21" s="4" t="s">
         <v>44</v>
       </c>
@@ -1238,7 +1238,7 @@
   <autoFilter ref="A1:D29" xr:uid="{B73647BE-74DB-4DA9-91E8-F6F78A1B7639}">
     <filterColumn colId="2">
       <filters>
-        <filter val="Data"/>
+        <filter val="Control"/>
       </filters>
     </filterColumn>
   </autoFilter>

--- a/docs/DDR4_PinDescription.xlsx
+++ b/docs/DDR4_PinDescription.xlsx
@@ -8,15 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\PCB\Project\DDR4_DIMM_Project\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66899EC3-B385-45A6-9022-5374EF918CC4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A36286E-183F-4882-84E2-2168EFDD5DEF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{5EF2FE71-DCD4-4236-92FA-B5935CC9F8C6}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{5EF2FE71-DCD4-4236-92FA-B5935CC9F8C6}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="DDR4_DRAM" sheetId="1" r:id="rId1"/>
+    <sheet name="Connector" sheetId="3" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$D$29</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Connector!$B$2:$D$290</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">DDR4_DRAM!$A$1:$D$29</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="695" uniqueCount="257">
   <si>
     <t>CK_t, CK_c</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -320,6 +322,732 @@
   </si>
   <si>
     <t>Data Strobe: c is counterpart of t</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Pin Group</t>
+  </si>
+  <si>
+    <t>Pin Name (Full)</t>
+  </si>
+  <si>
+    <t>Pin Number</t>
+  </si>
+  <si>
+    <t>CB0,NC</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>12V,NC</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DQ4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DQ0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DQ6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DQ2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DQ12</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DQ8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DQ14</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DQ10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DQ20</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DQ16</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DQ22</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DQ18</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DQ24</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DQ28</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DQ30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DQ26</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CB6,NC</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CB2,NC</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CKE0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BG0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A12/BC_n</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A9</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CK0_t</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CK0_c</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VTT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EVENT_n</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BA0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CS0_n</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ODT0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CS1_n</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ODT1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DQ36</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DQ32</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DQ38</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DQ34</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DQ44</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DQ40</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DQ46</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DQ42</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DQ52</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DQ48</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DQ54</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DQ50</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DQ60</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DQ56</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DQ62</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DQ58</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SA0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SA1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SCL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RFU</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DQ5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DQ1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DQS0_c</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DQS0_t</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DQ7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DQ3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DQ13</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DQ9</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DQS1_c</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DQS1_t</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DQ15</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DQ11</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DQ21</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DQ17</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DQS2_c</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DQS2_t</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DQ23</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DQ19</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DQ29</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DQ25</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DQS3_c</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DQS3_t</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DQ31</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DQ27</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CB5,NC</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CB1,NC</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DQS8_c</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DQS8_t</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CB7,NC</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CB3,NC</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CKE1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BG1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A11</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CK1_t</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CK1_c</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PARITY</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BA1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A10/AP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A13</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SA2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DQ37</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DQ33</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DQS4_c</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DQS4_t</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DQ39</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DQ35</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DQ45</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DQ41</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DQS5_c</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DQS5_t</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DQ47</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DQ43</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DQ53</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DQ49</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DQS6_c</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DQS6_t</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DQ55</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DQ51</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DQ61</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DQ57</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DQS7_t</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DQS7_c</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DQ63</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DQ59</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VDDSPD</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bank Select</t>
+  </si>
+  <si>
+    <t>Bank Group select</t>
+  </si>
+  <si>
+    <t>Rank select</t>
+  </si>
+  <si>
+    <t>C0,CS2_n/NC</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C1,CS3_n/NC</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Rank select</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Clock Enable</t>
+  </si>
+  <si>
+    <t>On-Die Termination</t>
+  </si>
+  <si>
+    <t>Activation Input</t>
+  </si>
+  <si>
+    <t>Databus</t>
+  </si>
+  <si>
+    <t>CB4/NC</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ECC Check</t>
+  </si>
+  <si>
+    <t>TDQS9_t, DQS9_t</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Clock Input</t>
+  </si>
+  <si>
+    <t>Clock Input</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Parity Input</t>
+  </si>
+  <si>
+    <t>SPD</t>
+  </si>
+  <si>
+    <t>SDA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ECC Check</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SPD</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Core Power Supply</t>
+  </si>
+  <si>
+    <t>Command/Address Reference</t>
+  </si>
+  <si>
+    <t>Power Supply Return</t>
+  </si>
+  <si>
+    <t>SPD Power Supply</t>
+  </si>
+  <si>
+    <t>DRAM Activation Power Supply</t>
+  </si>
+  <si>
+    <t>SDRAM I/O termnation supply</t>
+  </si>
+  <si>
+    <t>DQS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Alert and Reset</t>
+  </si>
+  <si>
+    <t>Alert and Reset</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Power Supply Return</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TDQS10_t, DQS10_t</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TDQS11_t, DQS11_t</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TDQS11_c, DQS11_c</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TDQS12_t, DQS12_t</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TDQS12_c, DQS12_c</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TDQS13_t, DQS13_t</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TDQS17_t, DQS17_t</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TDQS14_t, DQS14_t</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TDQS15_t, DQS15_t</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TDQS16_t, DQS16_t</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Data Mask</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Termanation DQS</t>
+  </si>
+  <si>
+    <t>Termanation DQS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TDQS9_c, DQS9_c</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TDQS10_c, DQS10_c</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TDQS17_c, DQS17_c</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TDQS13_c, DQS13_c</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TDQS14_c, DQS14_c</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TDQS15_c, DQS15_c</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TDQS16_c, DQS16_c</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SAVE_n/NC</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C2/NC</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A15/CAS_n</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A17/NC</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A16/RAS_n</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A14/WE_n</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Address and Command</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -327,7 +1055,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -343,6 +1071,21 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -352,7 +1095,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -440,13 +1183,51 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -480,9 +1261,25 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
+    <cellStyle name="표준 2" xfId="1" xr:uid="{B99912FD-EEEC-4805-A36F-BBFDC3EAD769}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -495,6 +1292,231 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>45722</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>35856</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>17932</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>118521</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="그림 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DE0163F0-AC67-BCC1-9A31-544953DF00F8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9315228" y="259974"/>
+          <a:ext cx="6695739" cy="4116782"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>98613</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>152399</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>669109</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>51575</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="그림 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{95DCC593-6A8F-A234-BA0F-98D38ABC347E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9368119" y="4634752"/>
+          <a:ext cx="3932261" cy="5502117"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>53789</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>107577</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>43380</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>80543</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="그림 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D4C377C7-9BB8-C91C-1C54-5D3AB5962DE4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9323295" y="10192871"/>
+          <a:ext cx="4023709" cy="3558848"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>96983</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>69272</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>465892</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>144555</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="그림 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E1916DA7-DA8A-F924-715E-2507C6E11DF5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13314219" y="4502727"/>
+          <a:ext cx="4359018" cy="5395428"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>609600</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>83127</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>92491</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>126580</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="그림 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E8A468E4-EF5F-E467-8952-9E02DDC39D3E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="17816945" y="4516582"/>
+          <a:ext cx="4138019" cy="5806943"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -814,11 +1836,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B73647BE-74DB-4DA9-91E8-F6F78A1B7639}">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:D29"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -842,7 +1863,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:4" hidden="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A2" s="4" t="s">
         <v>0</v>
       </c>
@@ -884,7 +1905,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:4" hidden="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A5" s="4" t="s">
         <v>11</v>
       </c>
@@ -912,7 +1933,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:4" hidden="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A7" s="4" t="s">
         <v>16</v>
       </c>
@@ -926,7 +1947,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="34.799999999999997" hidden="1" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:4" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="A8" s="4" t="s">
         <v>18</v>
       </c>
@@ -940,7 +1961,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="34.799999999999997" hidden="1" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:4" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="A9" s="7" t="s">
         <v>20</v>
       </c>
@@ -954,7 +1975,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="10" spans="1:4" hidden="1" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A10" s="4" t="s">
         <v>22</v>
       </c>
@@ -968,7 +1989,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="1:4" hidden="1" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A11" s="4" t="s">
         <v>67</v>
       </c>
@@ -982,7 +2003,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="12" spans="1:4" hidden="1" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A12" s="4" t="s">
         <v>26</v>
       </c>
@@ -996,7 +2017,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="13" spans="1:4" hidden="1" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A13" s="4" t="s">
         <v>28</v>
       </c>
@@ -1010,7 +2031,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="14" spans="1:4" hidden="1" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A14" s="4" t="s">
         <v>30</v>
       </c>
@@ -1038,7 +2059,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="16" spans="1:4" hidden="1" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A16" s="4" t="s">
         <v>34</v>
       </c>
@@ -1052,7 +2073,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="34.799999999999997" hidden="1" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:4" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="A17" s="7" t="s">
         <v>36</v>
       </c>
@@ -1066,7 +2087,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="18" spans="1:4" hidden="1" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A18" s="4" t="s">
         <v>37</v>
       </c>
@@ -1080,7 +2101,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="19" spans="1:4" hidden="1" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A19" s="4" t="s">
         <v>41</v>
       </c>
@@ -1094,7 +2115,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="20" spans="1:4" hidden="1" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A20" s="4" t="s">
         <v>43</v>
       </c>
@@ -1102,7 +2123,7 @@
         <v>53</v>
       </c>
       <c r="C20" t="s">
-        <v>24</v>
+        <v>66</v>
       </c>
       <c r="D20" s="5" t="s">
         <v>25</v>
@@ -1122,7 +2143,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="22" spans="1:4" hidden="1" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A22" s="4" t="s">
         <v>45</v>
       </c>
@@ -1136,7 +2157,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="23" spans="1:4" hidden="1" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A23" s="4" t="s">
         <v>46</v>
       </c>
@@ -1150,7 +2171,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="24" spans="1:4" hidden="1" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A24" s="4" t="s">
         <v>47</v>
       </c>
@@ -1164,7 +2185,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="25" spans="1:4" hidden="1" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A25" s="4" t="s">
         <v>48</v>
       </c>
@@ -1178,7 +2199,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="26" spans="1:4" hidden="1" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A26" s="4" t="s">
         <v>49</v>
       </c>
@@ -1192,7 +2213,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="27" spans="1:4" hidden="1" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A27" s="4" t="s">
         <v>50</v>
       </c>
@@ -1206,7 +2227,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="28" spans="1:4" hidden="1" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A28" s="4" t="s">
         <v>51</v>
       </c>
@@ -1220,7 +2241,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="29" spans="1:4" ht="18" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:4" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A29" s="8" t="s">
         <v>52</v>
       </c>
@@ -1235,14 +2256,3796 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:D29" xr:uid="{B73647BE-74DB-4DA9-91E8-F6F78A1B7639}">
-    <filterColumn colId="2">
-      <filters>
-        <filter val="Control"/>
-      </filters>
-    </filterColumn>
+  <autoFilter ref="A1:D29" xr:uid="{B73647BE-74DB-4DA9-91E8-F6F78A1B7639}"/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{588BB9AF-A37E-4FE0-B52C-E1B59C105382}">
+  <dimension ref="A1:E290"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="G26" sqref="G26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="2" max="2" width="11.8984375" style="11" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.59765625" style="11" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="29.296875" style="11" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.69921875" style="11" customWidth="1"/>
+    <col min="6" max="16384" width="8.796875" style="11"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A1" s="11"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A2" s="11"/>
+      <c r="B2" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="C2" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="D2" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="E2" s="16"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A3" s="11"/>
+      <c r="B3" s="13">
+        <v>1</v>
+      </c>
+      <c r="C3" s="13" t="s">
+        <v>74</v>
+      </c>
+      <c r="D3" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="E3" s="17"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A4" s="11"/>
+      <c r="B4" s="13">
+        <v>2</v>
+      </c>
+      <c r="C4" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="D4" s="13" t="s">
+        <v>222</v>
+      </c>
+      <c r="E4" s="17"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A5" s="11"/>
+      <c r="B5" s="13">
+        <v>5</v>
+      </c>
+      <c r="C5" s="13" t="s">
+        <v>76</v>
+      </c>
+      <c r="D5" s="13" t="s">
+        <v>209</v>
+      </c>
+      <c r="E5" s="17"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A6" s="11"/>
+      <c r="B6" s="13">
+        <v>4</v>
+      </c>
+      <c r="C6" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="D6" s="13" t="s">
+        <v>222</v>
+      </c>
+      <c r="E6" s="17"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A7" s="11"/>
+      <c r="B7" s="13">
+        <v>150</v>
+      </c>
+      <c r="C7" s="13" t="s">
+        <v>132</v>
+      </c>
+      <c r="D7" s="13" t="s">
+        <v>209</v>
+      </c>
+      <c r="E7" s="17"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A8" s="11"/>
+      <c r="B8" s="13">
+        <v>6</v>
+      </c>
+      <c r="C8" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="D8" s="13" t="s">
+        <v>222</v>
+      </c>
+      <c r="E8" s="17"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A9" s="11"/>
+      <c r="B9" s="13">
+        <v>7</v>
+      </c>
+      <c r="C9" s="13" t="s">
+        <v>212</v>
+      </c>
+      <c r="D9" s="13" t="s">
+        <v>240</v>
+      </c>
+      <c r="E9" s="17"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A10" s="11"/>
+      <c r="B10" s="13">
+        <v>8</v>
+      </c>
+      <c r="C10" s="13" t="s">
+        <v>243</v>
+      </c>
+      <c r="D10" s="13" t="s">
+        <v>242</v>
+      </c>
+      <c r="E10" s="17"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A11" s="11"/>
+      <c r="B11" s="13">
+        <v>9</v>
+      </c>
+      <c r="C11" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="D11" s="13" t="s">
+        <v>222</v>
+      </c>
+      <c r="E11" s="17"/>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A12" s="11"/>
+      <c r="B12" s="13">
+        <v>23</v>
+      </c>
+      <c r="C12" s="13" t="s">
+        <v>82</v>
+      </c>
+      <c r="D12" s="13" t="s">
+        <v>209</v>
+      </c>
+      <c r="E12" s="17"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A13" s="11"/>
+      <c r="B13" s="13">
+        <v>11</v>
+      </c>
+      <c r="C13" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="D13" s="13" t="s">
+        <v>222</v>
+      </c>
+      <c r="E13" s="17"/>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A14" s="11"/>
+      <c r="B14" s="13">
+        <v>168</v>
+      </c>
+      <c r="C14" s="13" t="s">
+        <v>142</v>
+      </c>
+      <c r="D14" s="13" t="s">
+        <v>209</v>
+      </c>
+      <c r="E14" s="17"/>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A15" s="11"/>
+      <c r="B15" s="13">
+        <v>13</v>
+      </c>
+      <c r="C15" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="D15" s="13" t="s">
+        <v>222</v>
+      </c>
+      <c r="E15" s="17"/>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A16" s="11"/>
+      <c r="B16" s="13">
+        <v>14</v>
+      </c>
+      <c r="C16" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="D16" s="13" t="s">
+        <v>209</v>
+      </c>
+      <c r="E16" s="17"/>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A17" s="11"/>
+      <c r="B17" s="13">
+        <v>15</v>
+      </c>
+      <c r="C17" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="D17" s="13" t="s">
+        <v>222</v>
+      </c>
+      <c r="E17" s="17"/>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A18" s="11"/>
+      <c r="B18" s="13">
+        <v>159</v>
+      </c>
+      <c r="C18" s="13" t="s">
+        <v>137</v>
+      </c>
+      <c r="D18" s="13" t="s">
+        <v>209</v>
+      </c>
+      <c r="E18" s="17"/>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A19" s="11"/>
+      <c r="B19" s="13">
+        <v>17</v>
+      </c>
+      <c r="C19" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="D19" s="13" t="s">
+        <v>222</v>
+      </c>
+      <c r="E19" s="17"/>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A20" s="11"/>
+      <c r="B20" s="13">
+        <v>18</v>
+      </c>
+      <c r="C20" s="15" t="s">
+        <v>230</v>
+      </c>
+      <c r="D20" s="13" t="s">
+        <v>240</v>
+      </c>
+      <c r="E20" s="17"/>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A21" s="11"/>
+      <c r="B21" s="13">
+        <v>19</v>
+      </c>
+      <c r="C21" s="15" t="s">
+        <v>244</v>
+      </c>
+      <c r="D21" s="13" t="s">
+        <v>241</v>
+      </c>
+      <c r="E21" s="17"/>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A22" s="11"/>
+      <c r="B22" s="13">
+        <v>20</v>
+      </c>
+      <c r="C22" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="D22" s="13" t="s">
+        <v>222</v>
+      </c>
+      <c r="E22" s="17"/>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A23" s="11"/>
+      <c r="B23" s="13">
+        <v>21</v>
+      </c>
+      <c r="C23" s="13" t="s">
+        <v>81</v>
+      </c>
+      <c r="D23" s="13" t="s">
+        <v>209</v>
+      </c>
+      <c r="E23" s="17"/>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A24" s="11"/>
+      <c r="B24" s="13">
+        <v>22</v>
+      </c>
+      <c r="C24" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="D24" s="13" t="s">
+        <v>222</v>
+      </c>
+      <c r="E24" s="17"/>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A25" s="11"/>
+      <c r="B25" s="13">
+        <v>166</v>
+      </c>
+      <c r="C25" s="13" t="s">
+        <v>141</v>
+      </c>
+      <c r="D25" s="13" t="s">
+        <v>209</v>
+      </c>
+      <c r="E25" s="17"/>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A26" s="11"/>
+      <c r="B26" s="13">
+        <v>24</v>
+      </c>
+      <c r="C26" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="D26" s="13" t="s">
+        <v>222</v>
+      </c>
+      <c r="E26" s="17"/>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A27" s="11"/>
+      <c r="B27" s="13">
+        <v>27</v>
+      </c>
+      <c r="C27" s="13" t="s">
+        <v>84</v>
+      </c>
+      <c r="D27" s="13" t="s">
+        <v>209</v>
+      </c>
+      <c r="E27" s="17"/>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A28" s="11"/>
+      <c r="B28" s="13">
+        <v>26</v>
+      </c>
+      <c r="C28" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="D28" s="13" t="s">
+        <v>222</v>
+      </c>
+      <c r="E28" s="17"/>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A29" s="11"/>
+      <c r="B29" s="13">
+        <v>172</v>
+      </c>
+      <c r="C29" s="13" t="s">
+        <v>144</v>
+      </c>
+      <c r="D29" s="13" t="s">
+        <v>209</v>
+      </c>
+      <c r="E29" s="17"/>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A30" s="11"/>
+      <c r="B30" s="13">
+        <v>28</v>
+      </c>
+      <c r="C30" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="D30" s="13" t="s">
+        <v>222</v>
+      </c>
+      <c r="E30" s="17"/>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A31" s="11"/>
+      <c r="B31" s="13">
+        <v>29</v>
+      </c>
+      <c r="C31" s="13" t="s">
+        <v>231</v>
+      </c>
+      <c r="D31" s="13" t="s">
+        <v>240</v>
+      </c>
+      <c r="E31" s="17"/>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A32" s="11"/>
+      <c r="B32" s="13">
+        <v>30</v>
+      </c>
+      <c r="C32" s="13" t="s">
+        <v>232</v>
+      </c>
+      <c r="D32" s="13" t="s">
+        <v>241</v>
+      </c>
+      <c r="E32" s="17"/>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A33" s="11"/>
+      <c r="B33" s="13">
+        <v>31</v>
+      </c>
+      <c r="C33" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="D33" s="13" t="s">
+        <v>222</v>
+      </c>
+      <c r="E33" s="17"/>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A34" s="11"/>
+      <c r="B34" s="13">
+        <v>34</v>
+      </c>
+      <c r="C34" s="13" t="s">
+        <v>86</v>
+      </c>
+      <c r="D34" s="13" t="s">
+        <v>209</v>
+      </c>
+      <c r="E34" s="17"/>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A35" s="11"/>
+      <c r="B35" s="13">
+        <v>33</v>
+      </c>
+      <c r="C35" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="D35" s="13" t="s">
+        <v>222</v>
+      </c>
+      <c r="E35" s="17"/>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A36" s="11"/>
+      <c r="B36" s="13">
+        <v>179</v>
+      </c>
+      <c r="C36" s="13" t="s">
+        <v>148</v>
+      </c>
+      <c r="D36" s="13" t="s">
+        <v>209</v>
+      </c>
+      <c r="E36" s="17"/>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A37" s="11"/>
+      <c r="B37" s="13">
+        <v>35</v>
+      </c>
+      <c r="C37" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="D37" s="13" t="s">
+        <v>222</v>
+      </c>
+      <c r="E37" s="17"/>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A38" s="11"/>
+      <c r="B38" s="13">
+        <v>12</v>
+      </c>
+      <c r="C38" s="13" t="s">
+        <v>78</v>
+      </c>
+      <c r="D38" s="13" t="s">
+        <v>209</v>
+      </c>
+      <c r="E38" s="17"/>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A39" s="11"/>
+      <c r="B39" s="13">
+        <v>37</v>
+      </c>
+      <c r="C39" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="D39" s="13" t="s">
+        <v>222</v>
+      </c>
+      <c r="E39" s="17"/>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A40" s="11"/>
+      <c r="B40" s="13">
+        <v>25</v>
+      </c>
+      <c r="C40" s="13" t="s">
+        <v>83</v>
+      </c>
+      <c r="D40" s="13" t="s">
+        <v>209</v>
+      </c>
+      <c r="E40" s="17"/>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A41" s="11"/>
+      <c r="B41" s="13">
+        <v>39</v>
+      </c>
+      <c r="C41" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="D41" s="13" t="s">
+        <v>222</v>
+      </c>
+      <c r="E41" s="17"/>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A42" s="11"/>
+      <c r="B42" s="13">
+        <v>40</v>
+      </c>
+      <c r="C42" s="13" t="s">
+        <v>233</v>
+      </c>
+      <c r="D42" s="13" t="s">
+        <v>240</v>
+      </c>
+      <c r="E42" s="17"/>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A43" s="11"/>
+      <c r="B43" s="13">
+        <v>41</v>
+      </c>
+      <c r="C43" s="13" t="s">
+        <v>234</v>
+      </c>
+      <c r="D43" s="13" t="s">
+        <v>241</v>
+      </c>
+      <c r="E43" s="17"/>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A44" s="11"/>
+      <c r="B44" s="13">
+        <v>42</v>
+      </c>
+      <c r="C44" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="D44" s="13" t="s">
+        <v>222</v>
+      </c>
+      <c r="E44" s="17"/>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A45" s="11"/>
+      <c r="B45" s="13">
+        <v>170</v>
+      </c>
+      <c r="C45" s="13" t="s">
+        <v>143</v>
+      </c>
+      <c r="D45" s="13" t="s">
+        <v>209</v>
+      </c>
+      <c r="E45" s="17"/>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A46" s="11"/>
+      <c r="B46" s="13">
+        <v>44</v>
+      </c>
+      <c r="C46" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="D46" s="13" t="s">
+        <v>222</v>
+      </c>
+      <c r="E46" s="17"/>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A47" s="11"/>
+      <c r="B47" s="13">
+        <v>32</v>
+      </c>
+      <c r="C47" s="13" t="s">
+        <v>85</v>
+      </c>
+      <c r="D47" s="13" t="s">
+        <v>209</v>
+      </c>
+      <c r="E47" s="17"/>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A48" s="11"/>
+      <c r="B48" s="13">
+        <v>46</v>
+      </c>
+      <c r="C48" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="D48" s="13" t="s">
+        <v>222</v>
+      </c>
+      <c r="E48" s="17"/>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A49" s="11"/>
+      <c r="B49" s="13">
+        <v>49</v>
+      </c>
+      <c r="C49" s="13" t="s">
+        <v>73</v>
+      </c>
+      <c r="D49" s="13" t="s">
+        <v>211</v>
+      </c>
+      <c r="E49" s="17"/>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A50" s="11"/>
+      <c r="B50" s="13">
+        <v>48</v>
+      </c>
+      <c r="C50" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="D50" s="13" t="s">
+        <v>222</v>
+      </c>
+      <c r="E50" s="17"/>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A51" s="11"/>
+      <c r="B51" s="13">
+        <v>194</v>
+      </c>
+      <c r="C51" s="13" t="s">
+        <v>156</v>
+      </c>
+      <c r="D51" s="13" t="s">
+        <v>211</v>
+      </c>
+      <c r="E51" s="17"/>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A52" s="11"/>
+      <c r="B52" s="13">
+        <v>50</v>
+      </c>
+      <c r="C52" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="D52" s="13" t="s">
+        <v>222</v>
+      </c>
+      <c r="E52" s="17"/>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A53" s="11"/>
+      <c r="B53" s="13">
+        <v>51</v>
+      </c>
+      <c r="C53" s="13" t="s">
+        <v>236</v>
+      </c>
+      <c r="D53" s="13" t="s">
+        <v>240</v>
+      </c>
+      <c r="E53" s="17"/>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A54" s="11"/>
+      <c r="B54" s="13">
+        <v>52</v>
+      </c>
+      <c r="C54" s="13" t="s">
+        <v>245</v>
+      </c>
+      <c r="D54" s="13" t="s">
+        <v>241</v>
+      </c>
+      <c r="E54" s="17"/>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A55" s="11"/>
+      <c r="B55" s="13">
+        <v>53</v>
+      </c>
+      <c r="C55" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="D55" s="13" t="s">
+        <v>222</v>
+      </c>
+      <c r="E55" s="17"/>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A56" s="11"/>
+      <c r="B56" s="13">
+        <v>56</v>
+      </c>
+      <c r="C56" s="13" t="s">
+        <v>92</v>
+      </c>
+      <c r="D56" s="13" t="s">
+        <v>211</v>
+      </c>
+      <c r="E56" s="17"/>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A57" s="11"/>
+      <c r="B57" s="13">
+        <v>55</v>
+      </c>
+      <c r="C57" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="D57" s="13" t="s">
+        <v>222</v>
+      </c>
+      <c r="E57" s="17"/>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A58" s="11"/>
+      <c r="B58" s="13">
+        <v>201</v>
+      </c>
+      <c r="C58" s="13" t="s">
+        <v>160</v>
+      </c>
+      <c r="D58" s="13" t="s">
+        <v>218</v>
+      </c>
+      <c r="E58" s="17"/>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A59" s="11"/>
+      <c r="B59" s="13">
+        <v>57</v>
+      </c>
+      <c r="C59" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="D59" s="13" t="s">
+        <v>222</v>
+      </c>
+      <c r="E59" s="17"/>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A60" s="11"/>
+      <c r="B60" s="13">
+        <v>58</v>
+      </c>
+      <c r="C60" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="D60" s="13" t="s">
+        <v>227</v>
+      </c>
+      <c r="E60" s="17"/>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A61" s="11"/>
+      <c r="B61" s="13">
+        <v>59</v>
+      </c>
+      <c r="C61" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="D61" s="13" t="s">
+        <v>220</v>
+      </c>
+      <c r="E61" s="17"/>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A62" s="11"/>
+      <c r="B62" s="13">
+        <v>60</v>
+      </c>
+      <c r="C62" s="13" t="s">
+        <v>93</v>
+      </c>
+      <c r="D62" s="13" t="s">
+        <v>206</v>
+      </c>
+      <c r="E62" s="17"/>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A63" s="11"/>
+      <c r="B63" s="13">
+        <v>61</v>
+      </c>
+      <c r="C63" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="D63" s="13" t="s">
+        <v>220</v>
+      </c>
+      <c r="E63" s="17"/>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A64" s="11"/>
+      <c r="B64" s="13">
+        <v>62</v>
+      </c>
+      <c r="C64" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="D64" s="13" t="s">
+        <v>208</v>
+      </c>
+      <c r="E64" s="17"/>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A65" s="11"/>
+      <c r="B65" s="13">
+        <v>63</v>
+      </c>
+      <c r="C65" s="13" t="s">
+        <v>94</v>
+      </c>
+      <c r="D65" s="13" t="s">
+        <v>201</v>
+      </c>
+      <c r="E65" s="17"/>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A66" s="11"/>
+      <c r="B66" s="13">
+        <v>64</v>
+      </c>
+      <c r="C66" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="D66" s="13" t="s">
+        <v>220</v>
+      </c>
+      <c r="E66" s="17"/>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A67" s="11"/>
+      <c r="B67" s="13">
+        <v>79</v>
+      </c>
+      <c r="C67" s="13" t="s">
+        <v>105</v>
+      </c>
+      <c r="D67" s="13" t="s">
+        <v>256</v>
+      </c>
+      <c r="E67" s="17"/>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A68" s="11"/>
+      <c r="B68" s="13">
+        <v>72</v>
+      </c>
+      <c r="C68" s="13" t="s">
+        <v>100</v>
+      </c>
+      <c r="D68" s="13" t="s">
+        <v>256</v>
+      </c>
+      <c r="E68" s="17"/>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A69" s="11"/>
+      <c r="B69" s="13">
+        <v>67</v>
+      </c>
+      <c r="C69" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="D69" s="13" t="s">
+        <v>220</v>
+      </c>
+      <c r="E69" s="17"/>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A70" s="11"/>
+      <c r="B70" s="13">
+        <v>225</v>
+      </c>
+      <c r="C70" s="13" t="s">
+        <v>172</v>
+      </c>
+      <c r="D70" s="13" t="s">
+        <v>256</v>
+      </c>
+      <c r="E70" s="17"/>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A71" s="11"/>
+      <c r="B71" s="13">
+        <v>210</v>
+      </c>
+      <c r="C71" s="13" t="s">
+        <v>165</v>
+      </c>
+      <c r="D71" s="13" t="s">
+        <v>256</v>
+      </c>
+      <c r="E71" s="17"/>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A72" s="11"/>
+      <c r="B72" s="13">
+        <v>70</v>
+      </c>
+      <c r="C72" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="D72" s="13" t="s">
+        <v>220</v>
+      </c>
+      <c r="E72" s="17"/>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A73" s="11"/>
+      <c r="B73" s="13">
+        <v>65</v>
+      </c>
+      <c r="C73" s="13" t="s">
+        <v>95</v>
+      </c>
+      <c r="D73" s="13" t="s">
+        <v>256</v>
+      </c>
+      <c r="E73" s="17"/>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A74" s="11"/>
+      <c r="B74" s="13">
+        <v>232</v>
+      </c>
+      <c r="C74" s="13" t="s">
+        <v>173</v>
+      </c>
+      <c r="D74" s="13" t="s">
+        <v>256</v>
+      </c>
+      <c r="E74" s="17"/>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A75" s="11"/>
+      <c r="B75" s="13">
+        <v>73</v>
+      </c>
+      <c r="C75" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="D75" s="13" t="s">
+        <v>220</v>
+      </c>
+      <c r="E75" s="17"/>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A76" s="11"/>
+      <c r="B76" s="13">
+        <v>74</v>
+      </c>
+      <c r="C76" s="13" t="s">
+        <v>101</v>
+      </c>
+      <c r="D76" s="13" t="s">
+        <v>214</v>
+      </c>
+      <c r="E76" s="17"/>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A77" s="11"/>
+      <c r="B77" s="13">
+        <v>75</v>
+      </c>
+      <c r="C77" s="13" t="s">
+        <v>102</v>
+      </c>
+      <c r="D77" s="13" t="s">
+        <v>214</v>
+      </c>
+      <c r="E77" s="17"/>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A78" s="11"/>
+      <c r="B78" s="13">
+        <v>76</v>
+      </c>
+      <c r="C78" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="D78" s="13" t="s">
+        <v>220</v>
+      </c>
+      <c r="E78" s="17"/>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A79" s="11"/>
+      <c r="B79" s="13">
+        <v>77</v>
+      </c>
+      <c r="C79" s="13" t="s">
+        <v>103</v>
+      </c>
+      <c r="D79" s="13" t="s">
+        <v>225</v>
+      </c>
+      <c r="E79" s="17"/>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A80" s="11"/>
+      <c r="B80" s="13">
+        <v>78</v>
+      </c>
+      <c r="C80" s="13" t="s">
+        <v>104</v>
+      </c>
+      <c r="D80" s="13" t="s">
+        <v>219</v>
+      </c>
+      <c r="E80" s="17"/>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A81" s="11"/>
+      <c r="B81" s="13">
+        <v>216</v>
+      </c>
+      <c r="C81" s="13" t="s">
+        <v>167</v>
+      </c>
+      <c r="D81" s="13" t="s">
+        <v>256</v>
+      </c>
+      <c r="E81" s="17"/>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A82" s="11"/>
+      <c r="B82" s="13">
+        <v>80</v>
+      </c>
+      <c r="C82" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="D82" s="13" t="s">
+        <v>220</v>
+      </c>
+      <c r="E82" s="17"/>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A83" s="11"/>
+      <c r="B83" s="13">
+        <v>81</v>
+      </c>
+      <c r="C83" s="13" t="s">
+        <v>106</v>
+      </c>
+      <c r="D83" s="13" t="s">
+        <v>200</v>
+      </c>
+      <c r="E83" s="17"/>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A84" s="11"/>
+      <c r="B84" s="13">
+        <v>71</v>
+      </c>
+      <c r="C84" s="13" t="s">
+        <v>99</v>
+      </c>
+      <c r="D84" s="13" t="s">
+        <v>256</v>
+      </c>
+      <c r="E84" s="17"/>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A85" s="11"/>
+      <c r="B85" s="13">
+        <v>83</v>
+      </c>
+      <c r="C85" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="D85" s="13" t="s">
+        <v>220</v>
+      </c>
+      <c r="E85" s="17"/>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A86" s="11"/>
+      <c r="B86" s="13">
+        <v>84</v>
+      </c>
+      <c r="C86" s="13" t="s">
+        <v>107</v>
+      </c>
+      <c r="D86" s="13" t="s">
+        <v>205</v>
+      </c>
+      <c r="E86" s="17"/>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A87" s="11"/>
+      <c r="B87" s="13">
+        <v>85</v>
+      </c>
+      <c r="C87" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="D87" s="13" t="s">
+        <v>220</v>
+      </c>
+      <c r="E87" s="17"/>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A88" s="11"/>
+      <c r="B88" s="13">
+        <v>214</v>
+      </c>
+      <c r="C88" s="13" t="s">
+        <v>164</v>
+      </c>
+      <c r="D88" s="13" t="s">
+        <v>256</v>
+      </c>
+      <c r="E88" s="17"/>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A89" s="11"/>
+      <c r="B89" s="13">
+        <v>87</v>
+      </c>
+      <c r="C89" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="D89" s="13" t="s">
+        <v>207</v>
+      </c>
+      <c r="E89" s="17"/>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A90" s="11"/>
+      <c r="B90" s="13">
+        <v>88</v>
+      </c>
+      <c r="C90" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="D90" s="13" t="s">
+        <v>220</v>
+      </c>
+      <c r="E90" s="17"/>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A91" s="11"/>
+      <c r="B91" s="13">
+        <v>89</v>
+      </c>
+      <c r="C91" s="13" t="s">
+        <v>109</v>
+      </c>
+      <c r="D91" s="13" t="s">
+        <v>202</v>
+      </c>
+      <c r="E91" s="17"/>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A92" s="11"/>
+      <c r="B92" s="13">
+        <v>90</v>
+      </c>
+      <c r="C92" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="D92" s="13" t="s">
+        <v>220</v>
+      </c>
+      <c r="E92" s="17"/>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A93" s="11"/>
+      <c r="B93" s="13">
+        <v>91</v>
+      </c>
+      <c r="C93" s="13" t="s">
+        <v>110</v>
+      </c>
+      <c r="D93" s="13" t="s">
+        <v>207</v>
+      </c>
+      <c r="E93" s="17"/>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A94" s="11"/>
+      <c r="B94" s="13">
+        <v>92</v>
+      </c>
+      <c r="C94" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="D94" s="13" t="s">
+        <v>220</v>
+      </c>
+      <c r="E94" s="17"/>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A95" s="11"/>
+      <c r="B95" s="13">
+        <v>93</v>
+      </c>
+      <c r="C95" s="13" t="s">
+        <v>203</v>
+      </c>
+      <c r="D95" s="13" t="s">
+        <v>202</v>
+      </c>
+      <c r="E95" s="17"/>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A96" s="11"/>
+      <c r="B96" s="13">
+        <v>94</v>
+      </c>
+      <c r="C96" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="D96" s="13" t="s">
+        <v>222</v>
+      </c>
+      <c r="E96" s="17"/>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A97" s="11"/>
+      <c r="B97" s="13">
+        <v>177</v>
+      </c>
+      <c r="C97" s="13" t="s">
+        <v>147</v>
+      </c>
+      <c r="D97" s="13" t="s">
+        <v>209</v>
+      </c>
+      <c r="E97" s="17"/>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A98" s="11"/>
+      <c r="B98" s="13">
+        <v>96</v>
+      </c>
+      <c r="C98" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="D98" s="13" t="s">
+        <v>222</v>
+      </c>
+      <c r="E98" s="17"/>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A99" s="11"/>
+      <c r="B99" s="13">
+        <v>38</v>
+      </c>
+      <c r="C99" s="13" t="s">
+        <v>87</v>
+      </c>
+      <c r="D99" s="13" t="s">
+        <v>209</v>
+      </c>
+      <c r="E99" s="17"/>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A100" s="11"/>
+      <c r="B100" s="13">
+        <v>98</v>
+      </c>
+      <c r="C100" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="D100" s="13" t="s">
+        <v>222</v>
+      </c>
+      <c r="E100" s="17"/>
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A101" s="11"/>
+      <c r="B101" s="13">
+        <v>99</v>
+      </c>
+      <c r="C101" s="13" t="s">
+        <v>235</v>
+      </c>
+      <c r="D101" s="13" t="s">
+        <v>240</v>
+      </c>
+      <c r="E101" s="17"/>
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A102" s="11"/>
+      <c r="B102" s="13">
+        <v>100</v>
+      </c>
+      <c r="C102" s="13" t="s">
+        <v>246</v>
+      </c>
+      <c r="D102" s="13" t="s">
+        <v>241</v>
+      </c>
+      <c r="E102" s="17"/>
+    </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A103" s="11"/>
+      <c r="B103" s="13">
+        <v>101</v>
+      </c>
+      <c r="C103" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="D103" s="13" t="s">
+        <v>222</v>
+      </c>
+      <c r="E103" s="17"/>
+    </row>
+    <row r="104" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A104" s="11"/>
+      <c r="B104" s="13">
+        <v>183</v>
+      </c>
+      <c r="C104" s="13" t="s">
+        <v>150</v>
+      </c>
+      <c r="D104" s="13" t="s">
+        <v>209</v>
+      </c>
+      <c r="E104" s="17"/>
+    </row>
+    <row r="105" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A105" s="11"/>
+      <c r="B105" s="13">
+        <v>103</v>
+      </c>
+      <c r="C105" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="D105" s="13" t="s">
+        <v>222</v>
+      </c>
+      <c r="E105" s="17"/>
+    </row>
+    <row r="106" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A106" s="11"/>
+      <c r="B106" s="13">
+        <v>45</v>
+      </c>
+      <c r="C106" s="13" t="s">
+        <v>90</v>
+      </c>
+      <c r="D106" s="13" t="s">
+        <v>209</v>
+      </c>
+      <c r="E106" s="17"/>
+    </row>
+    <row r="107" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A107" s="11"/>
+      <c r="B107" s="13">
+        <v>105</v>
+      </c>
+      <c r="C107" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="D107" s="13" t="s">
+        <v>222</v>
+      </c>
+      <c r="E107" s="17"/>
+    </row>
+    <row r="108" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A108" s="11"/>
+      <c r="B108" s="13">
+        <v>190</v>
+      </c>
+      <c r="C108" s="13" t="s">
+        <v>154</v>
+      </c>
+      <c r="D108" s="13" t="s">
+        <v>209</v>
+      </c>
+      <c r="E108" s="17"/>
+    </row>
+    <row r="109" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A109" s="11"/>
+      <c r="B109" s="13">
+        <v>107</v>
+      </c>
+      <c r="C109" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="D109" s="13" t="s">
+        <v>222</v>
+      </c>
+      <c r="E109" s="17"/>
+    </row>
+    <row r="110" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A110" s="11"/>
+      <c r="B110" s="13">
+        <v>36</v>
+      </c>
+      <c r="C110" s="13" t="s">
+        <v>88</v>
+      </c>
+      <c r="D110" s="13" t="s">
+        <v>209</v>
+      </c>
+      <c r="E110" s="17"/>
+    </row>
+    <row r="111" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A111" s="11"/>
+      <c r="B111" s="13">
+        <v>109</v>
+      </c>
+      <c r="C111" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="D111" s="13" t="s">
+        <v>222</v>
+      </c>
+      <c r="E111" s="17"/>
+    </row>
+    <row r="112" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A112" s="11"/>
+      <c r="B112" s="13">
+        <v>110</v>
+      </c>
+      <c r="C112" s="13" t="s">
+        <v>237</v>
+      </c>
+      <c r="D112" s="13" t="s">
+        <v>240</v>
+      </c>
+      <c r="E112" s="17"/>
+    </row>
+    <row r="113" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A113" s="11"/>
+      <c r="B113" s="13">
+        <v>111</v>
+      </c>
+      <c r="C113" s="13" t="s">
+        <v>247</v>
+      </c>
+      <c r="D113" s="13" t="s">
+        <v>241</v>
+      </c>
+      <c r="E113" s="17"/>
+    </row>
+    <row r="114" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A114" s="11"/>
+      <c r="B114" s="13">
+        <v>112</v>
+      </c>
+      <c r="C114" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="D114" s="13" t="s">
+        <v>222</v>
+      </c>
+      <c r="E114" s="17"/>
+    </row>
+    <row r="115" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A115" s="11"/>
+      <c r="B115" s="13">
+        <v>181</v>
+      </c>
+      <c r="C115" s="13" t="s">
+        <v>149</v>
+      </c>
+      <c r="D115" s="13" t="s">
+        <v>209</v>
+      </c>
+      <c r="E115" s="17"/>
+    </row>
+    <row r="116" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A116" s="11"/>
+      <c r="B116" s="13">
+        <v>114</v>
+      </c>
+      <c r="C116" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="D116" s="13" t="s">
+        <v>222</v>
+      </c>
+      <c r="E116" s="17"/>
+    </row>
+    <row r="117" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A117" s="11"/>
+      <c r="B117" s="13">
+        <v>157</v>
+      </c>
+      <c r="C117" s="13" t="s">
+        <v>136</v>
+      </c>
+      <c r="D117" s="13" t="s">
+        <v>209</v>
+      </c>
+      <c r="E117" s="17"/>
+    </row>
+    <row r="118" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A118" s="11"/>
+      <c r="B118" s="13">
+        <v>116</v>
+      </c>
+      <c r="C118" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="D118" s="13" t="s">
+        <v>222</v>
+      </c>
+      <c r="E118" s="17"/>
+    </row>
+    <row r="119" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A119" s="11"/>
+      <c r="B119" s="13">
+        <v>43</v>
+      </c>
+      <c r="C119" s="13" t="s">
+        <v>89</v>
+      </c>
+      <c r="D119" s="13" t="s">
+        <v>209</v>
+      </c>
+      <c r="E119" s="17"/>
+    </row>
+    <row r="120" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A120" s="11"/>
+      <c r="B120" s="13">
+        <v>118</v>
+      </c>
+      <c r="C120" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="D120" s="13" t="s">
+        <v>222</v>
+      </c>
+      <c r="E120" s="17"/>
+    </row>
+    <row r="121" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A121" s="11"/>
+      <c r="B121" s="13">
+        <v>188</v>
+      </c>
+      <c r="C121" s="13" t="s">
+        <v>153</v>
+      </c>
+      <c r="D121" s="13" t="s">
+        <v>209</v>
+      </c>
+      <c r="E121" s="17"/>
+    </row>
+    <row r="122" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A122" s="11"/>
+      <c r="B122" s="13">
+        <v>120</v>
+      </c>
+      <c r="C122" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="D122" s="13" t="s">
+        <v>222</v>
+      </c>
+      <c r="E122" s="17"/>
+    </row>
+    <row r="123" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A123" s="11"/>
+      <c r="B123" s="13">
+        <v>121</v>
+      </c>
+      <c r="C123" s="13" t="s">
+        <v>238</v>
+      </c>
+      <c r="D123" s="13" t="s">
+        <v>240</v>
+      </c>
+      <c r="E123" s="17"/>
+    </row>
+    <row r="124" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A124" s="11"/>
+      <c r="B124" s="13">
+        <v>122</v>
+      </c>
+      <c r="C124" s="13" t="s">
+        <v>248</v>
+      </c>
+      <c r="D124" s="13" t="s">
+        <v>241</v>
+      </c>
+      <c r="E124" s="17"/>
+    </row>
+    <row r="125" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A125" s="11"/>
+      <c r="B125" s="13">
+        <v>123</v>
+      </c>
+      <c r="C125" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="D125" s="13" t="s">
+        <v>222</v>
+      </c>
+      <c r="E125" s="17"/>
+    </row>
+    <row r="126" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A126" s="11"/>
+      <c r="B126" s="13">
+        <v>97</v>
+      </c>
+      <c r="C126" s="13" t="s">
+        <v>112</v>
+      </c>
+      <c r="D126" s="13" t="s">
+        <v>209</v>
+      </c>
+      <c r="E126" s="17"/>
+    </row>
+    <row r="127" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A127" s="11"/>
+      <c r="B127" s="13">
+        <v>125</v>
+      </c>
+      <c r="C127" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="D127" s="13" t="s">
+        <v>222</v>
+      </c>
+      <c r="E127" s="17"/>
+    </row>
+    <row r="128" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A128" s="11"/>
+      <c r="B128" s="13">
+        <v>242</v>
+      </c>
+      <c r="C128" s="13" t="s">
+        <v>176</v>
+      </c>
+      <c r="D128" s="13" t="s">
+        <v>209</v>
+      </c>
+      <c r="E128" s="17"/>
+    </row>
+    <row r="129" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A129" s="11"/>
+      <c r="B129" s="13">
+        <v>127</v>
+      </c>
+      <c r="C129" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="D129" s="13" t="s">
+        <v>222</v>
+      </c>
+      <c r="E129" s="17"/>
+    </row>
+    <row r="130" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A130" s="11"/>
+      <c r="B130" s="13">
+        <v>104</v>
+      </c>
+      <c r="C130" s="13" t="s">
+        <v>114</v>
+      </c>
+      <c r="D130" s="13" t="s">
+        <v>209</v>
+      </c>
+      <c r="E130" s="17"/>
+    </row>
+    <row r="131" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A131" s="11"/>
+      <c r="B131" s="13">
+        <v>129</v>
+      </c>
+      <c r="C131" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="D131" s="13" t="s">
+        <v>222</v>
+      </c>
+      <c r="E131" s="17"/>
+    </row>
+    <row r="132" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A132" s="11"/>
+      <c r="B132" s="13">
+        <v>249</v>
+      </c>
+      <c r="C132" s="13" t="s">
+        <v>180</v>
+      </c>
+      <c r="D132" s="13" t="s">
+        <v>209</v>
+      </c>
+      <c r="E132" s="17"/>
+    </row>
+    <row r="133" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A133" s="11"/>
+      <c r="B133" s="13">
+        <v>131</v>
+      </c>
+      <c r="C133" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="D133" s="13" t="s">
+        <v>222</v>
+      </c>
+      <c r="E133" s="17"/>
+    </row>
+    <row r="134" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A134" s="11"/>
+      <c r="B134" s="13">
+        <v>132</v>
+      </c>
+      <c r="C134" s="13" t="s">
+        <v>239</v>
+      </c>
+      <c r="D134" s="13" t="s">
+        <v>240</v>
+      </c>
+      <c r="E134" s="17"/>
+    </row>
+    <row r="135" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A135" s="11"/>
+      <c r="B135" s="13">
+        <v>133</v>
+      </c>
+      <c r="C135" s="13" t="s">
+        <v>249</v>
+      </c>
+      <c r="D135" s="13" t="s">
+        <v>241</v>
+      </c>
+      <c r="E135" s="17"/>
+    </row>
+    <row r="136" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A136" s="11"/>
+      <c r="B136" s="13">
+        <v>134</v>
+      </c>
+      <c r="C136" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="D136" s="13" t="s">
+        <v>222</v>
+      </c>
+      <c r="E136" s="17"/>
+    </row>
+    <row r="137" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A137" s="11"/>
+      <c r="B137" s="13">
+        <v>95</v>
+      </c>
+      <c r="C137" s="13" t="s">
+        <v>111</v>
+      </c>
+      <c r="D137" s="13" t="s">
+        <v>209</v>
+      </c>
+      <c r="E137" s="17"/>
+    </row>
+    <row r="138" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A138" s="11"/>
+      <c r="B138" s="13">
+        <v>136</v>
+      </c>
+      <c r="C138" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="D138" s="13" t="s">
+        <v>222</v>
+      </c>
+      <c r="E138" s="17"/>
+    </row>
+    <row r="139" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A139" s="11"/>
+      <c r="B139" s="13">
+        <v>240</v>
+      </c>
+      <c r="C139" s="13" t="s">
+        <v>175</v>
+      </c>
+      <c r="D139" s="13" t="s">
+        <v>209</v>
+      </c>
+      <c r="E139" s="17"/>
+    </row>
+    <row r="140" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A140" s="11"/>
+      <c r="B140" s="13">
+        <v>138</v>
+      </c>
+      <c r="C140" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="D140" s="13" t="s">
+        <v>222</v>
+      </c>
+      <c r="E140" s="17"/>
+    </row>
+    <row r="141" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A141" s="11"/>
+      <c r="B141" s="13">
+        <v>139</v>
+      </c>
+      <c r="C141" s="13" t="s">
+        <v>127</v>
+      </c>
+      <c r="D141" s="13" t="s">
+        <v>216</v>
+      </c>
+      <c r="E141" s="17"/>
+    </row>
+    <row r="142" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A142" s="11"/>
+      <c r="B142" s="13">
+        <v>140</v>
+      </c>
+      <c r="C142" s="13" t="s">
+        <v>128</v>
+      </c>
+      <c r="D142" s="13" t="s">
+        <v>216</v>
+      </c>
+      <c r="E142" s="17"/>
+    </row>
+    <row r="143" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A143" s="11"/>
+      <c r="B143" s="13">
+        <v>141</v>
+      </c>
+      <c r="C143" s="13" t="s">
+        <v>129</v>
+      </c>
+      <c r="D143" s="13" t="s">
+        <v>216</v>
+      </c>
+      <c r="E143" s="17"/>
+    </row>
+    <row r="144" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A144" s="11"/>
+      <c r="B144" s="13">
+        <v>142</v>
+      </c>
+      <c r="C144" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="D144" s="13" t="s">
+        <v>224</v>
+      </c>
+      <c r="E144" s="17"/>
+    </row>
+    <row r="145" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A145" s="11"/>
+      <c r="B145" s="13">
+        <v>143</v>
+      </c>
+      <c r="C145" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="D145" s="13" t="s">
+        <v>224</v>
+      </c>
+      <c r="E145" s="17"/>
+    </row>
+    <row r="146" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A146" s="11"/>
+      <c r="B146" s="13">
+        <v>144</v>
+      </c>
+      <c r="C146" s="13" t="s">
+        <v>130</v>
+      </c>
+      <c r="D146" s="13" t="s">
+        <v>227</v>
+      </c>
+      <c r="E146" s="17"/>
+    </row>
+    <row r="147" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A147" s="11"/>
+      <c r="B147" s="13">
+        <v>145</v>
+      </c>
+      <c r="C147" s="13" t="s">
+        <v>74</v>
+      </c>
+      <c r="D147" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="E147" s="17"/>
+    </row>
+    <row r="148" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A148" s="11"/>
+      <c r="B148" s="13">
+        <v>146</v>
+      </c>
+      <c r="C148" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="D148" s="13" t="s">
+        <v>221</v>
+      </c>
+      <c r="E148" s="17"/>
+    </row>
+    <row r="149" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A149" s="11"/>
+      <c r="B149" s="13">
+        <v>147</v>
+      </c>
+      <c r="C149" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="D149" s="13" t="s">
+        <v>222</v>
+      </c>
+      <c r="E149" s="17"/>
+    </row>
+    <row r="150" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A150" s="11"/>
+      <c r="B150" s="13">
+        <v>102</v>
+      </c>
+      <c r="C150" s="13" t="s">
+        <v>113</v>
+      </c>
+      <c r="D150" s="13" t="s">
+        <v>209</v>
+      </c>
+      <c r="E150" s="17"/>
+    </row>
+    <row r="151" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A151" s="11"/>
+      <c r="B151" s="13">
+        <v>149</v>
+      </c>
+      <c r="C151" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="D151" s="13" t="s">
+        <v>222</v>
+      </c>
+      <c r="E151" s="17"/>
+    </row>
+    <row r="152" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A152" s="11"/>
+      <c r="B152" s="13">
+        <v>247</v>
+      </c>
+      <c r="C152" s="13" t="s">
+        <v>179</v>
+      </c>
+      <c r="D152" s="13" t="s">
+        <v>209</v>
+      </c>
+      <c r="E152" s="17"/>
+    </row>
+    <row r="153" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A153" s="11"/>
+      <c r="B153" s="13">
+        <v>151</v>
+      </c>
+      <c r="C153" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="D153" s="13" t="s">
+        <v>222</v>
+      </c>
+      <c r="E153" s="17"/>
+    </row>
+    <row r="154" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A154" s="11"/>
+      <c r="B154" s="13">
+        <v>152</v>
+      </c>
+      <c r="C154" s="13" t="s">
+        <v>133</v>
+      </c>
+      <c r="D154" s="13" t="s">
+        <v>226</v>
+      </c>
+      <c r="E154" s="17"/>
+    </row>
+    <row r="155" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A155" s="11"/>
+      <c r="B155" s="13">
+        <v>153</v>
+      </c>
+      <c r="C155" s="13" t="s">
+        <v>134</v>
+      </c>
+      <c r="D155" s="13" t="s">
+        <v>226</v>
+      </c>
+      <c r="E155" s="17"/>
+    </row>
+    <row r="156" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A156" s="11"/>
+      <c r="B156" s="13">
+        <v>154</v>
+      </c>
+      <c r="C156" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="D156" s="13" t="s">
+        <v>222</v>
+      </c>
+      <c r="E156" s="17"/>
+    </row>
+    <row r="157" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A157" s="11"/>
+      <c r="B157" s="13">
+        <v>3</v>
+      </c>
+      <c r="C157" s="13" t="s">
+        <v>75</v>
+      </c>
+      <c r="D157" s="13" t="s">
+        <v>209</v>
+      </c>
+      <c r="E157" s="17"/>
+    </row>
+    <row r="158" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A158" s="11"/>
+      <c r="B158" s="13">
+        <v>156</v>
+      </c>
+      <c r="C158" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="D158" s="13" t="s">
+        <v>222</v>
+      </c>
+      <c r="E158" s="17"/>
+    </row>
+    <row r="159" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A159" s="11"/>
+      <c r="B159" s="13">
+        <v>108</v>
+      </c>
+      <c r="C159" s="13" t="s">
+        <v>116</v>
+      </c>
+      <c r="D159" s="13" t="s">
+        <v>209</v>
+      </c>
+      <c r="E159" s="17"/>
+    </row>
+    <row r="160" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A160" s="11"/>
+      <c r="B160" s="13">
+        <v>158</v>
+      </c>
+      <c r="C160" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="D160" s="13" t="s">
+        <v>222</v>
+      </c>
+      <c r="E160" s="17"/>
+    </row>
+    <row r="161" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A161" s="11"/>
+      <c r="B161" s="13">
+        <v>253</v>
+      </c>
+      <c r="C161" s="13" t="s">
+        <v>182</v>
+      </c>
+      <c r="D161" s="13" t="s">
+        <v>209</v>
+      </c>
+      <c r="E161" s="17"/>
+    </row>
+    <row r="162" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A162" s="11"/>
+      <c r="B162" s="13">
+        <v>160</v>
+      </c>
+      <c r="C162" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="D162" s="13" t="s">
+        <v>222</v>
+      </c>
+      <c r="E162" s="17"/>
+    </row>
+    <row r="163" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A163" s="11"/>
+      <c r="B163" s="13">
+        <v>115</v>
+      </c>
+      <c r="C163" s="13" t="s">
+        <v>118</v>
+      </c>
+      <c r="D163" s="13" t="s">
+        <v>209</v>
+      </c>
+      <c r="E163" s="17"/>
+    </row>
+    <row r="164" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A164" s="11"/>
+      <c r="B164" s="13">
+        <v>162</v>
+      </c>
+      <c r="C164" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="D164" s="13" t="s">
+        <v>222</v>
+      </c>
+      <c r="E164" s="17"/>
+    </row>
+    <row r="165" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A165" s="11"/>
+      <c r="B165" s="13">
+        <v>163</v>
+      </c>
+      <c r="C165" s="13" t="s">
+        <v>139</v>
+      </c>
+      <c r="D165" s="13" t="s">
+        <v>226</v>
+      </c>
+      <c r="E165" s="17"/>
+    </row>
+    <row r="166" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A166" s="11"/>
+      <c r="B166" s="13">
+        <v>164</v>
+      </c>
+      <c r="C166" s="13" t="s">
+        <v>140</v>
+      </c>
+      <c r="D166" s="13" t="s">
+        <v>226</v>
+      </c>
+      <c r="E166" s="17"/>
+    </row>
+    <row r="167" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A167" s="11"/>
+      <c r="B167" s="13">
+        <v>165</v>
+      </c>
+      <c r="C167" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="D167" s="13" t="s">
+        <v>222</v>
+      </c>
+      <c r="E167" s="17"/>
+    </row>
+    <row r="168" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A168" s="11"/>
+      <c r="B168" s="13">
+        <v>260</v>
+      </c>
+      <c r="C168" s="13" t="s">
+        <v>186</v>
+      </c>
+      <c r="D168" s="13" t="s">
+        <v>209</v>
+      </c>
+      <c r="E168" s="17"/>
+    </row>
+    <row r="169" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A169" s="11"/>
+      <c r="B169" s="13">
+        <v>167</v>
+      </c>
+      <c r="C169" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="D169" s="13" t="s">
+        <v>222</v>
+      </c>
+      <c r="E169" s="17"/>
+    </row>
+    <row r="170" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A170" s="11"/>
+      <c r="B170" s="13">
+        <v>106</v>
+      </c>
+      <c r="C170" s="13" t="s">
+        <v>115</v>
+      </c>
+      <c r="D170" s="13" t="s">
+        <v>209</v>
+      </c>
+      <c r="E170" s="17"/>
+    </row>
+    <row r="171" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A171" s="11"/>
+      <c r="B171" s="13">
+        <v>169</v>
+      </c>
+      <c r="C171" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="D171" s="13" t="s">
+        <v>222</v>
+      </c>
+      <c r="E171" s="17"/>
+    </row>
+    <row r="172" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A172" s="11"/>
+      <c r="B172" s="13">
+        <v>251</v>
+      </c>
+      <c r="C172" s="13" t="s">
+        <v>181</v>
+      </c>
+      <c r="D172" s="13" t="s">
+        <v>209</v>
+      </c>
+      <c r="E172" s="17"/>
+    </row>
+    <row r="173" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A173" s="11"/>
+      <c r="B173" s="13">
+        <v>171</v>
+      </c>
+      <c r="C173" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="D173" s="13" t="s">
+        <v>222</v>
+      </c>
+      <c r="E173" s="17"/>
+    </row>
+    <row r="174" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A174" s="11"/>
+      <c r="B174" s="13">
+        <v>113</v>
+      </c>
+      <c r="C174" s="13" t="s">
+        <v>117</v>
+      </c>
+      <c r="D174" s="13" t="s">
+        <v>209</v>
+      </c>
+      <c r="E174" s="17"/>
+    </row>
+    <row r="175" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A175" s="11"/>
+      <c r="B175" s="13">
+        <v>173</v>
+      </c>
+      <c r="C175" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="D175" s="13" t="s">
+        <v>222</v>
+      </c>
+      <c r="E175" s="17"/>
+    </row>
+    <row r="176" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A176" s="11"/>
+      <c r="B176" s="13">
+        <v>174</v>
+      </c>
+      <c r="C176" s="13" t="s">
+        <v>145</v>
+      </c>
+      <c r="D176" s="13" t="s">
+        <v>226</v>
+      </c>
+      <c r="E176" s="17"/>
+    </row>
+    <row r="177" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A177" s="11"/>
+      <c r="B177" s="13">
+        <v>175</v>
+      </c>
+      <c r="C177" s="13" t="s">
+        <v>146</v>
+      </c>
+      <c r="D177" s="13" t="s">
+        <v>226</v>
+      </c>
+      <c r="E177" s="17"/>
+    </row>
+    <row r="178" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A178" s="11"/>
+      <c r="B178" s="13">
+        <v>176</v>
+      </c>
+      <c r="C178" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="D178" s="13" t="s">
+        <v>222</v>
+      </c>
+      <c r="E178" s="17"/>
+    </row>
+    <row r="179" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A179" s="11"/>
+      <c r="B179" s="13">
+        <v>258</v>
+      </c>
+      <c r="C179" s="13" t="s">
+        <v>185</v>
+      </c>
+      <c r="D179" s="13" t="s">
+        <v>209</v>
+      </c>
+      <c r="E179" s="17"/>
+    </row>
+    <row r="180" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A180" s="11"/>
+      <c r="B180" s="13">
+        <v>178</v>
+      </c>
+      <c r="C180" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="D180" s="13" t="s">
+        <v>222</v>
+      </c>
+      <c r="E180" s="17"/>
+    </row>
+    <row r="181" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A181" s="11"/>
+      <c r="B181" s="13">
+        <v>119</v>
+      </c>
+      <c r="C181" s="13" t="s">
+        <v>120</v>
+      </c>
+      <c r="D181" s="13" t="s">
+        <v>209</v>
+      </c>
+      <c r="E181" s="17"/>
+    </row>
+    <row r="182" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A182" s="11"/>
+      <c r="B182" s="13">
+        <v>180</v>
+      </c>
+      <c r="C182" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="D182" s="13" t="s">
+        <v>222</v>
+      </c>
+      <c r="E182" s="17"/>
+    </row>
+    <row r="183" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A183" s="11"/>
+      <c r="B183" s="13">
+        <v>264</v>
+      </c>
+      <c r="C183" s="13" t="s">
+        <v>188</v>
+      </c>
+      <c r="D183" s="13" t="s">
+        <v>209</v>
+      </c>
+      <c r="E183" s="17"/>
+    </row>
+    <row r="184" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A184" s="11"/>
+      <c r="B184" s="13">
+        <v>182</v>
+      </c>
+      <c r="C184" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="D184" s="13" t="s">
+        <v>222</v>
+      </c>
+      <c r="E184" s="17"/>
+    </row>
+    <row r="185" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A185" s="11"/>
+      <c r="B185" s="13">
+        <v>148</v>
+      </c>
+      <c r="C185" s="13" t="s">
+        <v>131</v>
+      </c>
+      <c r="D185" s="13" t="s">
+        <v>209</v>
+      </c>
+      <c r="E185" s="17"/>
+    </row>
+    <row r="186" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A186" s="11"/>
+      <c r="B186" s="13">
+        <v>184</v>
+      </c>
+      <c r="C186" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="D186" s="13" t="s">
+        <v>222</v>
+      </c>
+      <c r="E186" s="17"/>
+    </row>
+    <row r="187" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A187" s="11"/>
+      <c r="B187" s="13">
+        <v>185</v>
+      </c>
+      <c r="C187" s="13" t="s">
+        <v>151</v>
+      </c>
+      <c r="D187" s="13" t="s">
+        <v>226</v>
+      </c>
+      <c r="E187" s="17"/>
+    </row>
+    <row r="188" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A188" s="11"/>
+      <c r="B188" s="13">
+        <v>186</v>
+      </c>
+      <c r="C188" s="13" t="s">
+        <v>152</v>
+      </c>
+      <c r="D188" s="13" t="s">
+        <v>226</v>
+      </c>
+      <c r="E188" s="17"/>
+    </row>
+    <row r="189" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A189" s="11"/>
+      <c r="B189" s="13">
+        <v>187</v>
+      </c>
+      <c r="C189" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="D189" s="13" t="s">
+        <v>222</v>
+      </c>
+      <c r="E189" s="17"/>
+    </row>
+    <row r="190" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A190" s="11"/>
+      <c r="B190" s="13">
+        <v>126</v>
+      </c>
+      <c r="C190" s="13" t="s">
+        <v>122</v>
+      </c>
+      <c r="D190" s="13" t="s">
+        <v>209</v>
+      </c>
+      <c r="E190" s="17"/>
+    </row>
+    <row r="191" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A191" s="11"/>
+      <c r="B191" s="13">
+        <v>189</v>
+      </c>
+      <c r="C191" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="D191" s="13" t="s">
+        <v>222</v>
+      </c>
+      <c r="E191" s="17"/>
+    </row>
+    <row r="192" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A192" s="11"/>
+      <c r="B192" s="13">
+        <v>271</v>
+      </c>
+      <c r="C192" s="13" t="s">
+        <v>192</v>
+      </c>
+      <c r="D192" s="13" t="s">
+        <v>209</v>
+      </c>
+      <c r="E192" s="17"/>
+    </row>
+    <row r="193" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A193" s="11"/>
+      <c r="B193" s="13">
+        <v>191</v>
+      </c>
+      <c r="C193" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="D193" s="13" t="s">
+        <v>222</v>
+      </c>
+      <c r="E193" s="17"/>
+    </row>
+    <row r="194" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A194" s="11"/>
+      <c r="B194" s="13">
+        <v>47</v>
+      </c>
+      <c r="C194" s="13" t="s">
+        <v>210</v>
+      </c>
+      <c r="D194" s="13" t="s">
+        <v>218</v>
+      </c>
+      <c r="E194" s="17"/>
+    </row>
+    <row r="195" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A195" s="11"/>
+      <c r="B195" s="13">
+        <v>193</v>
+      </c>
+      <c r="C195" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="D195" s="13" t="s">
+        <v>222</v>
+      </c>
+      <c r="E195" s="17"/>
+    </row>
+    <row r="196" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A196" s="11"/>
+      <c r="B196" s="13">
+        <v>192</v>
+      </c>
+      <c r="C196" s="13" t="s">
+        <v>155</v>
+      </c>
+      <c r="D196" s="13" t="s">
+        <v>211</v>
+      </c>
+      <c r="E196" s="17"/>
+    </row>
+    <row r="197" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A197" s="11"/>
+      <c r="B197" s="13">
+        <v>195</v>
+      </c>
+      <c r="C197" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="D197" s="13" t="s">
+        <v>222</v>
+      </c>
+      <c r="E197" s="17"/>
+    </row>
+    <row r="198" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A198" s="11"/>
+      <c r="B198" s="13">
+        <v>244</v>
+      </c>
+      <c r="C198" s="13" t="s">
+        <v>177</v>
+      </c>
+      <c r="D198" s="13" t="s">
+        <v>226</v>
+      </c>
+      <c r="E198" s="17"/>
+    </row>
+    <row r="199" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A199" s="11"/>
+      <c r="B199" s="13">
+        <v>245</v>
+      </c>
+      <c r="C199" s="13" t="s">
+        <v>178</v>
+      </c>
+      <c r="D199" s="13" t="s">
+        <v>226</v>
+      </c>
+      <c r="E199" s="17"/>
+    </row>
+    <row r="200" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A200" s="11"/>
+      <c r="B200" s="13">
+        <v>198</v>
+      </c>
+      <c r="C200" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="D200" s="13" t="s">
+        <v>229</v>
+      </c>
+      <c r="E200" s="17"/>
+    </row>
+    <row r="201" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A201" s="11"/>
+      <c r="B201" s="13">
+        <v>54</v>
+      </c>
+      <c r="C201" s="13" t="s">
+        <v>91</v>
+      </c>
+      <c r="D201" s="13" t="s">
+        <v>211</v>
+      </c>
+      <c r="E201" s="17"/>
+    </row>
+    <row r="202" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A202" s="11"/>
+      <c r="B202" s="13">
+        <v>200</v>
+      </c>
+      <c r="C202" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="D202" s="13" t="s">
+        <v>222</v>
+      </c>
+      <c r="E202" s="17"/>
+    </row>
+    <row r="203" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A203" s="11"/>
+      <c r="B203" s="13">
+        <v>199</v>
+      </c>
+      <c r="C203" s="13" t="s">
+        <v>159</v>
+      </c>
+      <c r="D203" s="13" t="s">
+        <v>211</v>
+      </c>
+      <c r="E203" s="17"/>
+    </row>
+    <row r="204" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A204" s="11"/>
+      <c r="B204" s="13">
+        <v>202</v>
+      </c>
+      <c r="C204" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="D204" s="13" t="s">
+        <v>222</v>
+      </c>
+      <c r="E204" s="17"/>
+    </row>
+    <row r="205" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A205" s="11"/>
+      <c r="B205" s="13">
+        <v>203</v>
+      </c>
+      <c r="C205" s="13" t="s">
+        <v>161</v>
+      </c>
+      <c r="D205" s="13" t="s">
+        <v>206</v>
+      </c>
+      <c r="E205" s="17"/>
+    </row>
+    <row r="206" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A206" s="11"/>
+      <c r="B206" s="13">
+        <v>204</v>
+      </c>
+      <c r="C206" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="D206" s="13" t="s">
+        <v>220</v>
+      </c>
+      <c r="E206" s="17"/>
+    </row>
+    <row r="207" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A207" s="11"/>
+      <c r="B207" s="13">
+        <v>205</v>
+      </c>
+      <c r="C207" s="13" t="s">
+        <v>130</v>
+      </c>
+      <c r="D207" s="13" t="s">
+        <v>227</v>
+      </c>
+      <c r="E207" s="17"/>
+    </row>
+    <row r="208" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A208" s="11"/>
+      <c r="B208" s="13">
+        <v>206</v>
+      </c>
+      <c r="C208" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="D208" s="13" t="s">
+        <v>220</v>
+      </c>
+      <c r="E208" s="17"/>
+    </row>
+    <row r="209" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A209" s="11"/>
+      <c r="B209" s="13">
+        <v>207</v>
+      </c>
+      <c r="C209" s="13" t="s">
+        <v>162</v>
+      </c>
+      <c r="D209" s="13" t="s">
+        <v>201</v>
+      </c>
+      <c r="E209" s="17"/>
+    </row>
+    <row r="210" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A210" s="11"/>
+      <c r="B210" s="13">
+        <v>208</v>
+      </c>
+      <c r="C210" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="D210" s="13" t="s">
+        <v>228</v>
+      </c>
+      <c r="E210" s="17"/>
+    </row>
+    <row r="211" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A211" s="11"/>
+      <c r="B211" s="13">
+        <v>209</v>
+      </c>
+      <c r="C211" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="D211" s="13" t="s">
+        <v>220</v>
+      </c>
+      <c r="E211" s="17"/>
+    </row>
+    <row r="212" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A212" s="11"/>
+      <c r="B212" s="13">
+        <v>213</v>
+      </c>
+      <c r="C212" s="13" t="s">
+        <v>163</v>
+      </c>
+      <c r="D212" s="13" t="s">
+        <v>256</v>
+      </c>
+      <c r="E212" s="17"/>
+    </row>
+    <row r="213" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A213" s="11"/>
+      <c r="B213" s="13">
+        <v>69</v>
+      </c>
+      <c r="C213" s="13" t="s">
+        <v>98</v>
+      </c>
+      <c r="D213" s="13" t="s">
+        <v>256</v>
+      </c>
+      <c r="E213" s="17"/>
+    </row>
+    <row r="214" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A214" s="11"/>
+      <c r="B214" s="13">
+        <v>212</v>
+      </c>
+      <c r="C214" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="D214" s="13" t="s">
+        <v>220</v>
+      </c>
+      <c r="E214" s="17"/>
+    </row>
+    <row r="215" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A215" s="11"/>
+      <c r="B215" s="13">
+        <v>211</v>
+      </c>
+      <c r="C215" s="13" t="s">
+        <v>166</v>
+      </c>
+      <c r="D215" s="13" t="s">
+        <v>256</v>
+      </c>
+      <c r="E215" s="17"/>
+    </row>
+    <row r="216" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A216" s="11"/>
+      <c r="B216" s="13">
+        <v>68</v>
+      </c>
+      <c r="C216" s="13" t="s">
+        <v>97</v>
+      </c>
+      <c r="D216" s="13" t="s">
+        <v>256</v>
+      </c>
+      <c r="E216" s="17"/>
+    </row>
+    <row r="217" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A217" s="11"/>
+      <c r="B217" s="13">
+        <v>215</v>
+      </c>
+      <c r="C217" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="D217" s="13" t="s">
+        <v>220</v>
+      </c>
+      <c r="E217" s="17"/>
+    </row>
+    <row r="218" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A218" s="11"/>
+      <c r="B218" s="13">
+        <v>66</v>
+      </c>
+      <c r="C218" s="13" t="s">
+        <v>96</v>
+      </c>
+      <c r="D218" s="13" t="s">
+        <v>256</v>
+      </c>
+      <c r="E218" s="17"/>
+    </row>
+    <row r="219" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A219" s="11"/>
+      <c r="B219" s="13">
+        <v>217</v>
+      </c>
+      <c r="C219" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="D219" s="13" t="s">
+        <v>220</v>
+      </c>
+      <c r="E219" s="17"/>
+    </row>
+    <row r="220" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A220" s="11"/>
+      <c r="B220" s="13">
+        <v>218</v>
+      </c>
+      <c r="C220" s="13" t="s">
+        <v>168</v>
+      </c>
+      <c r="D220" s="13" t="s">
+        <v>214</v>
+      </c>
+      <c r="E220" s="17"/>
+    </row>
+    <row r="221" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A221" s="11"/>
+      <c r="B221" s="13">
+        <v>219</v>
+      </c>
+      <c r="C221" s="13" t="s">
+        <v>169</v>
+      </c>
+      <c r="D221" s="13" t="s">
+        <v>213</v>
+      </c>
+      <c r="E221" s="17"/>
+    </row>
+    <row r="222" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A222" s="11"/>
+      <c r="B222" s="13">
+        <v>220</v>
+      </c>
+      <c r="C222" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="D222" s="13" t="s">
+        <v>220</v>
+      </c>
+      <c r="E222" s="17"/>
+    </row>
+    <row r="223" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A223" s="11"/>
+      <c r="B223" s="13">
+        <v>221</v>
+      </c>
+      <c r="C223" s="13" t="s">
+        <v>103</v>
+      </c>
+      <c r="D223" s="13" t="s">
+        <v>225</v>
+      </c>
+      <c r="E223" s="17"/>
+    </row>
+    <row r="224" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A224" s="11"/>
+      <c r="B224" s="13">
+        <v>222</v>
+      </c>
+      <c r="C224" s="13" t="s">
+        <v>170</v>
+      </c>
+      <c r="D224" s="13" t="s">
+        <v>215</v>
+      </c>
+      <c r="E224" s="17"/>
+    </row>
+    <row r="225" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A225" s="11"/>
+      <c r="B225" s="13">
+        <v>223</v>
+      </c>
+      <c r="C225" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="D225" s="13" t="s">
+        <v>220</v>
+      </c>
+      <c r="E225" s="17"/>
+    </row>
+    <row r="226" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A226" s="11"/>
+      <c r="B226" s="13">
+        <v>224</v>
+      </c>
+      <c r="C226" s="13" t="s">
+        <v>171</v>
+      </c>
+      <c r="D226" s="13" t="s">
+        <v>200</v>
+      </c>
+      <c r="E226" s="17"/>
+    </row>
+    <row r="227" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A227" s="11"/>
+      <c r="B227" s="13">
+        <v>86</v>
+      </c>
+      <c r="C227" s="13" t="s">
+        <v>252</v>
+      </c>
+      <c r="D227" s="13" t="s">
+        <v>256</v>
+      </c>
+      <c r="E227" s="17"/>
+    </row>
+    <row r="228" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A228" s="11"/>
+      <c r="B228" s="13">
+        <v>226</v>
+      </c>
+      <c r="C228" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="D228" s="13" t="s">
+        <v>220</v>
+      </c>
+      <c r="E228" s="17"/>
+    </row>
+    <row r="229" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A229" s="11"/>
+      <c r="B229" s="13">
+        <v>227</v>
+      </c>
+      <c r="C229" s="13" t="s">
+        <v>130</v>
+      </c>
+      <c r="D229" s="13" t="s">
+        <v>227</v>
+      </c>
+      <c r="E229" s="17"/>
+    </row>
+    <row r="230" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A230" s="11"/>
+      <c r="B230" s="13">
+        <v>234</v>
+      </c>
+      <c r="C230" s="13" t="s">
+        <v>253</v>
+      </c>
+      <c r="D230" s="13" t="s">
+        <v>256</v>
+      </c>
+      <c r="E230" s="17"/>
+    </row>
+    <row r="231" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A231" s="11"/>
+      <c r="B231" s="13">
+        <v>229</v>
+      </c>
+      <c r="C231" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="D231" s="13" t="s">
+        <v>220</v>
+      </c>
+      <c r="E231" s="17"/>
+    </row>
+    <row r="232" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A232" s="11"/>
+      <c r="B232" s="13">
+        <v>230</v>
+      </c>
+      <c r="C232" s="13" t="s">
+        <v>250</v>
+      </c>
+      <c r="D232" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="E232" s="17"/>
+    </row>
+    <row r="233" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A233" s="11"/>
+      <c r="B233" s="13">
+        <v>231</v>
+      </c>
+      <c r="C233" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="D233" s="13" t="s">
+        <v>220</v>
+      </c>
+      <c r="E233" s="17"/>
+    </row>
+    <row r="234" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A234" s="11"/>
+      <c r="B234" s="13">
+        <v>82</v>
+      </c>
+      <c r="C234" s="13" t="s">
+        <v>254</v>
+      </c>
+      <c r="D234" s="13" t="s">
+        <v>256</v>
+      </c>
+      <c r="E234" s="17"/>
+    </row>
+    <row r="235" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A235" s="11"/>
+      <c r="B235" s="13">
+        <v>233</v>
+      </c>
+      <c r="C235" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="D235" s="13" t="s">
+        <v>220</v>
+      </c>
+      <c r="E235" s="17"/>
+    </row>
+    <row r="236" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A236" s="11"/>
+      <c r="B236" s="13">
+        <v>228</v>
+      </c>
+      <c r="C236" s="13" t="s">
+        <v>255</v>
+      </c>
+      <c r="D236" s="13" t="s">
+        <v>256</v>
+      </c>
+      <c r="E236" s="17"/>
+    </row>
+    <row r="237" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A237" s="11"/>
+      <c r="B237" s="13">
+        <v>235</v>
+      </c>
+      <c r="C237" s="13" t="s">
+        <v>251</v>
+      </c>
+      <c r="D237" s="13" t="s">
+        <v>205</v>
+      </c>
+      <c r="E237" s="17"/>
+    </row>
+    <row r="238" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A238" s="11"/>
+      <c r="B238" s="13">
+        <v>236</v>
+      </c>
+      <c r="C238" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="D238" s="13" t="s">
+        <v>220</v>
+      </c>
+      <c r="E238" s="17"/>
+    </row>
+    <row r="239" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A239" s="11"/>
+      <c r="B239" s="13">
+        <v>237</v>
+      </c>
+      <c r="C239" s="13" t="s">
+        <v>204</v>
+      </c>
+      <c r="D239" s="13" t="s">
+        <v>202</v>
+      </c>
+      <c r="E239" s="17"/>
+    </row>
+    <row r="240" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A240" s="11"/>
+      <c r="B240" s="13">
+        <v>238</v>
+      </c>
+      <c r="C240" s="13" t="s">
+        <v>174</v>
+      </c>
+      <c r="D240" s="13" t="s">
+        <v>216</v>
+      </c>
+      <c r="E240" s="17"/>
+    </row>
+    <row r="241" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A241" s="11"/>
+      <c r="B241" s="13">
+        <v>239</v>
+      </c>
+      <c r="C241" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="D241" s="13" t="s">
+        <v>222</v>
+      </c>
+      <c r="E241" s="17"/>
+    </row>
+    <row r="242" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A242" s="11"/>
+      <c r="B242" s="13">
+        <v>117</v>
+      </c>
+      <c r="C242" s="13" t="s">
+        <v>119</v>
+      </c>
+      <c r="D242" s="13" t="s">
+        <v>209</v>
+      </c>
+      <c r="E242" s="17"/>
+    </row>
+    <row r="243" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A243" s="11"/>
+      <c r="B243" s="13">
+        <v>241</v>
+      </c>
+      <c r="C243" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="D243" s="13" t="s">
+        <v>222</v>
+      </c>
+      <c r="E243" s="17"/>
+    </row>
+    <row r="244" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A244" s="11"/>
+      <c r="B244" s="13">
+        <v>262</v>
+      </c>
+      <c r="C244" s="13" t="s">
+        <v>187</v>
+      </c>
+      <c r="D244" s="13" t="s">
+        <v>209</v>
+      </c>
+      <c r="E244" s="17"/>
+    </row>
+    <row r="245" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A245" s="11"/>
+      <c r="B245" s="13">
+        <v>243</v>
+      </c>
+      <c r="C245" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="D245" s="13" t="s">
+        <v>222</v>
+      </c>
+      <c r="E245" s="17"/>
+    </row>
+    <row r="246" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A246" s="11"/>
+      <c r="B246" s="13">
+        <v>255</v>
+      </c>
+      <c r="C246" s="13" t="s">
+        <v>183</v>
+      </c>
+      <c r="D246" s="13" t="s">
+        <v>226</v>
+      </c>
+      <c r="E246" s="17"/>
+    </row>
+    <row r="247" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A247" s="11"/>
+      <c r="B247" s="13">
+        <v>256</v>
+      </c>
+      <c r="C247" s="13" t="s">
+        <v>184</v>
+      </c>
+      <c r="D247" s="13" t="s">
+        <v>226</v>
+      </c>
+      <c r="E247" s="17"/>
+    </row>
+    <row r="248" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A248" s="11"/>
+      <c r="B248" s="13">
+        <v>246</v>
+      </c>
+      <c r="C248" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="D248" s="13" t="s">
+        <v>222</v>
+      </c>
+      <c r="E248" s="17"/>
+    </row>
+    <row r="249" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A249" s="11"/>
+      <c r="B249" s="13">
+        <v>124</v>
+      </c>
+      <c r="C249" s="13" t="s">
+        <v>121</v>
+      </c>
+      <c r="D249" s="13" t="s">
+        <v>209</v>
+      </c>
+      <c r="E249" s="17"/>
+    </row>
+    <row r="250" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A250" s="11"/>
+      <c r="B250" s="13">
+        <v>248</v>
+      </c>
+      <c r="C250" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="D250" s="13" t="s">
+        <v>222</v>
+      </c>
+      <c r="E250" s="17"/>
+    </row>
+    <row r="251" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A251" s="11"/>
+      <c r="B251" s="13">
+        <v>269</v>
+      </c>
+      <c r="C251" s="13" t="s">
+        <v>191</v>
+      </c>
+      <c r="D251" s="13" t="s">
+        <v>209</v>
+      </c>
+      <c r="E251" s="17"/>
+    </row>
+    <row r="252" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A252" s="11"/>
+      <c r="B252" s="13">
+        <v>250</v>
+      </c>
+      <c r="C252" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="D252" s="13" t="s">
+        <v>222</v>
+      </c>
+      <c r="E252" s="17"/>
+    </row>
+    <row r="253" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A253" s="11"/>
+      <c r="B253" s="13">
+        <v>130</v>
+      </c>
+      <c r="C253" s="13" t="s">
+        <v>124</v>
+      </c>
+      <c r="D253" s="13" t="s">
+        <v>209</v>
+      </c>
+      <c r="E253" s="17"/>
+    </row>
+    <row r="254" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A254" s="11"/>
+      <c r="B254" s="13">
+        <v>252</v>
+      </c>
+      <c r="C254" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="D254" s="13" t="s">
+        <v>222</v>
+      </c>
+      <c r="E254" s="17"/>
+    </row>
+    <row r="255" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A255" s="11"/>
+      <c r="B255" s="13">
+        <v>275</v>
+      </c>
+      <c r="C255" s="13" t="s">
+        <v>194</v>
+      </c>
+      <c r="D255" s="13" t="s">
+        <v>209</v>
+      </c>
+      <c r="E255" s="17"/>
+    </row>
+    <row r="256" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A256" s="11"/>
+      <c r="B256" s="13">
+        <v>254</v>
+      </c>
+      <c r="C256" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="D256" s="13" t="s">
+        <v>222</v>
+      </c>
+      <c r="E256" s="17"/>
+    </row>
+    <row r="257" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A257" s="11"/>
+      <c r="B257" s="13">
+        <v>266</v>
+      </c>
+      <c r="C257" s="13" t="s">
+        <v>189</v>
+      </c>
+      <c r="D257" s="13" t="s">
+        <v>226</v>
+      </c>
+      <c r="E257" s="17"/>
+    </row>
+    <row r="258" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A258" s="11"/>
+      <c r="B258" s="13">
+        <v>267</v>
+      </c>
+      <c r="C258" s="13" t="s">
+        <v>190</v>
+      </c>
+      <c r="D258" s="13" t="s">
+        <v>226</v>
+      </c>
+      <c r="E258" s="17"/>
+    </row>
+    <row r="259" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A259" s="11"/>
+      <c r="B259" s="13">
+        <v>257</v>
+      </c>
+      <c r="C259" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="D259" s="13" t="s">
+        <v>222</v>
+      </c>
+      <c r="E259" s="17"/>
+    </row>
+    <row r="260" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A260" s="11"/>
+      <c r="B260" s="13">
+        <v>137</v>
+      </c>
+      <c r="C260" s="13" t="s">
+        <v>126</v>
+      </c>
+      <c r="D260" s="13" t="s">
+        <v>209</v>
+      </c>
+      <c r="E260" s="17"/>
+    </row>
+    <row r="261" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A261" s="11"/>
+      <c r="B261" s="13">
+        <v>259</v>
+      </c>
+      <c r="C261" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="D261" s="13" t="s">
+        <v>222</v>
+      </c>
+      <c r="E261" s="17"/>
+    </row>
+    <row r="262" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A262" s="11"/>
+      <c r="B262" s="13">
+        <v>282</v>
+      </c>
+      <c r="C262" s="13" t="s">
+        <v>198</v>
+      </c>
+      <c r="D262" s="13" t="s">
+        <v>209</v>
+      </c>
+      <c r="E262" s="17"/>
+    </row>
+    <row r="263" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A263" s="11"/>
+      <c r="B263" s="13">
+        <v>261</v>
+      </c>
+      <c r="C263" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="D263" s="13" t="s">
+        <v>222</v>
+      </c>
+      <c r="E263" s="17"/>
+    </row>
+    <row r="264" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A264" s="11"/>
+      <c r="B264" s="13">
+        <v>10</v>
+      </c>
+      <c r="C264" s="13" t="s">
+        <v>77</v>
+      </c>
+      <c r="D264" s="13" t="s">
+        <v>209</v>
+      </c>
+      <c r="E264" s="17"/>
+    </row>
+    <row r="265" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A265" s="11"/>
+      <c r="B265" s="13">
+        <v>263</v>
+      </c>
+      <c r="C265" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="D265" s="13" t="s">
+        <v>222</v>
+      </c>
+      <c r="E265" s="17"/>
+    </row>
+    <row r="266" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A266" s="11"/>
+      <c r="B266" s="13">
+        <v>128</v>
+      </c>
+      <c r="C266" s="13" t="s">
+        <v>123</v>
+      </c>
+      <c r="D266" s="13" t="s">
+        <v>209</v>
+      </c>
+      <c r="E266" s="17"/>
+    </row>
+    <row r="267" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A267" s="11"/>
+      <c r="B267" s="13">
+        <v>265</v>
+      </c>
+      <c r="C267" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="D267" s="13" t="s">
+        <v>222</v>
+      </c>
+      <c r="E267" s="17"/>
+    </row>
+    <row r="268" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A268" s="11"/>
+      <c r="B268" s="13">
+        <v>277</v>
+      </c>
+      <c r="C268" s="13" t="s">
+        <v>196</v>
+      </c>
+      <c r="D268" s="13" t="s">
+        <v>226</v>
+      </c>
+      <c r="E268" s="17"/>
+    </row>
+    <row r="269" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A269" s="11"/>
+      <c r="B269" s="13">
+        <v>278</v>
+      </c>
+      <c r="C269" s="13" t="s">
+        <v>195</v>
+      </c>
+      <c r="D269" s="13" t="s">
+        <v>226</v>
+      </c>
+      <c r="E269" s="17"/>
+    </row>
+    <row r="270" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A270" s="11"/>
+      <c r="B270" s="13">
+        <v>268</v>
+      </c>
+      <c r="C270" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="D270" s="13" t="s">
+        <v>222</v>
+      </c>
+      <c r="E270" s="17"/>
+    </row>
+    <row r="271" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A271" s="11"/>
+      <c r="B271" s="13">
+        <v>273</v>
+      </c>
+      <c r="C271" s="13" t="s">
+        <v>193</v>
+      </c>
+      <c r="D271" s="13" t="s">
+        <v>209</v>
+      </c>
+      <c r="E271" s="17"/>
+    </row>
+    <row r="272" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A272" s="11"/>
+      <c r="B272" s="13">
+        <v>270</v>
+      </c>
+      <c r="C272" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="D272" s="13" t="s">
+        <v>222</v>
+      </c>
+      <c r="E272" s="17"/>
+    </row>
+    <row r="273" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A273" s="11"/>
+      <c r="B273" s="13">
+        <v>135</v>
+      </c>
+      <c r="C273" s="13" t="s">
+        <v>125</v>
+      </c>
+      <c r="D273" s="13" t="s">
+        <v>209</v>
+      </c>
+      <c r="E273" s="17"/>
+    </row>
+    <row r="274" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A274" s="11"/>
+      <c r="B274" s="13">
+        <v>272</v>
+      </c>
+      <c r="C274" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="D274" s="13" t="s">
+        <v>222</v>
+      </c>
+      <c r="E274" s="17"/>
+    </row>
+    <row r="275" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A275" s="11"/>
+      <c r="B275" s="13">
+        <v>280</v>
+      </c>
+      <c r="C275" s="13" t="s">
+        <v>197</v>
+      </c>
+      <c r="D275" s="13" t="s">
+        <v>209</v>
+      </c>
+      <c r="E275" s="17"/>
+    </row>
+    <row r="276" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A276" s="11"/>
+      <c r="B276" s="13">
+        <v>274</v>
+      </c>
+      <c r="C276" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="D276" s="13" t="s">
+        <v>222</v>
+      </c>
+      <c r="E276" s="17"/>
+    </row>
+    <row r="277" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A277" s="11"/>
+      <c r="B277" s="13">
+        <v>155</v>
+      </c>
+      <c r="C277" s="13" t="s">
+        <v>135</v>
+      </c>
+      <c r="D277" s="13" t="s">
+        <v>209</v>
+      </c>
+      <c r="E277" s="17"/>
+    </row>
+    <row r="278" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A278" s="11"/>
+      <c r="B278" s="13">
+        <v>276</v>
+      </c>
+      <c r="C278" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="D278" s="13" t="s">
+        <v>222</v>
+      </c>
+      <c r="E278" s="17"/>
+    </row>
+    <row r="279" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A279" s="11"/>
+      <c r="B279" s="13">
+        <v>196</v>
+      </c>
+      <c r="C279" s="13" t="s">
+        <v>157</v>
+      </c>
+      <c r="D279" s="13" t="s">
+        <v>226</v>
+      </c>
+      <c r="E279" s="17"/>
+    </row>
+    <row r="280" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A280" s="11"/>
+      <c r="B280" s="13">
+        <v>197</v>
+      </c>
+      <c r="C280" s="13" t="s">
+        <v>158</v>
+      </c>
+      <c r="D280" s="13" t="s">
+        <v>226</v>
+      </c>
+      <c r="E280" s="17"/>
+    </row>
+    <row r="281" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A281" s="11"/>
+      <c r="B281" s="13">
+        <v>279</v>
+      </c>
+      <c r="C281" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="D281" s="13" t="s">
+        <v>222</v>
+      </c>
+      <c r="E281" s="17"/>
+    </row>
+    <row r="282" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A282" s="11"/>
+      <c r="B282" s="13">
+        <v>16</v>
+      </c>
+      <c r="C282" s="13" t="s">
+        <v>80</v>
+      </c>
+      <c r="D282" s="13" t="s">
+        <v>209</v>
+      </c>
+      <c r="E282" s="17"/>
+    </row>
+    <row r="283" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A283" s="11"/>
+      <c r="B283" s="13">
+        <v>281</v>
+      </c>
+      <c r="C283" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="D283" s="13" t="s">
+        <v>222</v>
+      </c>
+      <c r="E283" s="17"/>
+    </row>
+    <row r="284" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A284" s="11"/>
+      <c r="B284" s="13">
+        <v>161</v>
+      </c>
+      <c r="C284" s="13" t="s">
+        <v>138</v>
+      </c>
+      <c r="D284" s="13" t="s">
+        <v>209</v>
+      </c>
+      <c r="E284" s="17"/>
+    </row>
+    <row r="285" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A285" s="11"/>
+      <c r="B285" s="13">
+        <v>283</v>
+      </c>
+      <c r="C285" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="D285" s="13" t="s">
+        <v>229</v>
+      </c>
+      <c r="E285" s="17"/>
+    </row>
+    <row r="286" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A286" s="11"/>
+      <c r="B286" s="13">
+        <v>284</v>
+      </c>
+      <c r="C286" s="13" t="s">
+        <v>199</v>
+      </c>
+      <c r="D286" s="13" t="s">
+        <v>223</v>
+      </c>
+      <c r="E286" s="17"/>
+    </row>
+    <row r="287" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A287" s="11"/>
+      <c r="B287" s="13">
+        <v>285</v>
+      </c>
+      <c r="C287" s="13" t="s">
+        <v>217</v>
+      </c>
+      <c r="D287" s="13" t="s">
+        <v>216</v>
+      </c>
+      <c r="E287" s="17"/>
+    </row>
+    <row r="288" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A288" s="11"/>
+      <c r="B288" s="13">
+        <v>286</v>
+      </c>
+      <c r="C288" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="D288" s="13" t="s">
+        <v>224</v>
+      </c>
+      <c r="E288" s="17"/>
+    </row>
+    <row r="289" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A289" s="11"/>
+      <c r="B289" s="13">
+        <v>287</v>
+      </c>
+      <c r="C289" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="D289" s="13" t="s">
+        <v>224</v>
+      </c>
+      <c r="E289" s="17"/>
+    </row>
+    <row r="290" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="B290" s="13">
+        <v>288</v>
+      </c>
+      <c r="C290" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="D290" s="13" t="s">
+        <v>224</v>
+      </c>
+      <c r="E290" s="17"/>
+    </row>
+  </sheetData>
+  <autoFilter ref="B2:D290" xr:uid="{588BB9AF-A37E-4FE0-B52C-E1B59C105382}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B49:D203">
+      <sortCondition ref="C2:C290"/>
+    </sortState>
   </autoFilter>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>